--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String Vibration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1905399D-3507-DD48-9B07-EA6E75D022B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4165A8-64AB-B34D-8D7C-E42C51B9535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="820" windowWidth="27960" windowHeight="17440" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="2" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
+    <sheet name="Task 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Task 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Task 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Task 4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,14 +39,184 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Feste Seitenlänge L = 0.6 m und feste Zugspannung -&gt; 1 kg in 3.Kerbe des Lasthebels</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>L in m</t>
+  </si>
+  <si>
+    <t>M in kg</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in Hz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Überprüfe die Lage der Knoten und Bäuchen für die 2. Oberschwingung n = 3 und 3. Oberschwingung n = 4, nachdem die Resonanzfrequenz f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> bzw f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>eingestellt wurde</t>
+    </r>
+  </si>
+  <si>
+    <t>Messunsicherheiten:</t>
+  </si>
+  <si>
+    <t>Ablesegenauigkeit Längenmessung</t>
+  </si>
+  <si>
+    <t>Ablesegenauigkeit Lage Detektorspule</t>
+  </si>
+  <si>
+    <t>Ablesegenauigkeit Resonanzfrequenz</t>
+  </si>
+  <si>
+    <t>Unsicherheit Zugkraft</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in Hz</t>
+    </r>
+  </si>
+  <si>
+    <t>x(Knoten) in m</t>
+  </si>
+  <si>
+    <t>Feste Seitenlänge L = 0.6 m und bei drei verschiedene Zugspannungen</t>
+  </si>
+  <si>
+    <r>
+      <t>Messung bei eine Resonanzfrequenz f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> (Grundfrequenz) für 10 verschiedene Saitenlänge zwischen L= 20 cm bis L = 65 cm bei einen festen Zugspannung (1k in 3. Kerbe)</t>
+    </r>
+  </si>
+  <si>
+    <t>Resonanzfrequenz n = 1 für 8 verschiedene Zugspannungen bei festen Saitenlänge</t>
+  </si>
+  <si>
+    <t>Hebelübersetzung</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri-Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,13 +239,152 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="42">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -82,6 +395,132 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}" name="Table1" displayName="Table1" ref="B4:E13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="B4:E13" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{49A74B27-AB55-2C45-B404-17BFD5862C1B}" name="fn in Hz" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{DF3E784A-D43A-9144-B675-D2303F2C1901}" name="n" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{466F7D5D-012C-4540-8451-0B7818BBDDE3}" name="L in m" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{41824933-9B57-9B46-ACB9-4188D316CD4C}" name="M in kg" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="B18:D23" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3C67841A-ACBD-AB40-A2C6-C116DFD040B2}" name="fn in Hz" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{8D38A66A-AA02-5541-A3B7-505B3C69ABF7}" name="n" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:E13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="B4:E13" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="G4:J13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="G4:J13" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="L4:O13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="L4:O13" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:E14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B4:E14" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="fn in Hz" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:F12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B4:F12" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,13 +819,960 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3082E1-7E34-4048-8DA0-CFD18FE20702}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8EE8EB-3159-9A4D-BC2A-A2594BEF3010}">
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3082E1-7E34-4048-8DA0-CFD18FE20702}">
+  <dimension ref="A2:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18" customHeight="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" ht="18" customHeight="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" ht="18" customHeight="1">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" ht="18" customHeight="1">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" ht="18" customHeight="1">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
+  <dimension ref="A2:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>6</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>8</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F492D1-66B2-CA4D-8806-FC125DF2E804}">
+  <dimension ref="A2:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856E6C-5E8C-6A41-A8A7-A9E5D2BE7E03}">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4165A8-64AB-B34D-8D7C-E42C51B9535E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB78DC47-81B3-8C40-BBC6-3EB8246E8A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="2" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="1" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>-</t>
   </si>
@@ -189,12 +189,36 @@
   <si>
     <t>Hebelübersetzung</t>
   </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in Hz</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +241,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri-Light"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -865,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3082E1-7E34-4048-8DA0-CFD18FE20702}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -885,7 +916,7 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -898,7 +929,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>161</v>
+      </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -910,7 +943,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>325</v>
+      </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
@@ -922,7 +957,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>489</v>
+      </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -934,7 +971,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>654</v>
+      </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -946,7 +985,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>818</v>
+      </c>
       <c r="C9" s="2">
         <v>5</v>
       </c>
@@ -958,7 +999,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>984</v>
+      </c>
       <c r="C10" s="2">
         <v>6</v>
       </c>
@@ -970,7 +1013,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>1150</v>
+      </c>
       <c r="C11" s="2">
         <v>7</v>
       </c>
@@ -982,7 +1027,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1314</v>
+      </c>
       <c r="C12" s="2">
         <v>8</v>
       </c>
@@ -994,7 +1041,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>1479</v>
+      </c>
       <c r="C13" s="2">
         <v>9</v>
       </c>
@@ -1072,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
   <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB78DC47-81B3-8C40-BBC6-3EB8246E8A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8104AF37-E1D3-3642-AF39-3FEA3BBF52AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="1" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="2" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
@@ -315,14 +315,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -471,17 +471,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="G4:J13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="G4:J13" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="G4:J13" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -490,16 +490,16 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="L4:O13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="L4:O13" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="L4:O13" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -508,16 +508,16 @@
   </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:E14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:E14" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B4:E14" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -525,17 +525,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="fn in Hz" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="fn in Hz" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:F12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:F12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B4:F12" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -544,11 +544,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3082E1-7E34-4048-8DA0-CFD18FE20702}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
   <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1137,6 +1137,9 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="17">
       <c r="B4" s="2" t="s">
@@ -1178,7 +1181,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="2">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1189,8 +1192,8 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
+      <c r="G5">
+        <v>80.5</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1201,8 +1204,8 @@
       <c r="J5" s="2">
         <v>0.5</v>
       </c>
-      <c r="L5" s="2">
-        <v>0</v>
+      <c r="L5">
+        <v>805</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
@@ -1216,7 +1219,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="2">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1227,8 +1230,8 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
+      <c r="G6">
+        <v>162.5</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1239,8 +1242,8 @@
       <c r="J6" s="2">
         <v>0.5</v>
       </c>
-      <c r="L6" s="2">
-        <v>0</v>
+      <c r="L6">
+        <v>1625</v>
       </c>
       <c r="M6" s="2">
         <v>2</v>
@@ -1254,7 +1257,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="2">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1265,8 +1268,8 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
+      <c r="G7">
+        <v>244.5</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1277,8 +1280,8 @@
       <c r="J7" s="2">
         <v>0.5</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
+      <c r="L7">
+        <v>2445</v>
       </c>
       <c r="M7" s="2">
         <v>3</v>
@@ -1292,7 +1295,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="2">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1303,8 +1306,8 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
+      <c r="G8">
+        <v>327</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
@@ -1315,8 +1318,8 @@
       <c r="J8" s="2">
         <v>0.5</v>
       </c>
-      <c r="L8" s="2">
-        <v>0</v>
+      <c r="L8">
+        <v>3270</v>
       </c>
       <c r="M8" s="2">
         <v>4</v>
@@ -1330,7 +1333,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="2">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1341,8 +1344,8 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
+      <c r="G9">
+        <v>409</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
@@ -1353,8 +1356,8 @@
       <c r="J9" s="2">
         <v>0.5</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
+      <c r="L9">
+        <v>4090</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
@@ -1368,7 +1371,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="2">
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -1379,8 +1382,8 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
+      <c r="G10">
+        <v>492</v>
       </c>
       <c r="H10" s="2">
         <v>6</v>
@@ -1391,8 +1394,8 @@
       <c r="J10" s="2">
         <v>0.5</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
+      <c r="L10">
+        <v>4920</v>
       </c>
       <c r="M10" s="2">
         <v>6</v>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="2">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="C11" s="2">
         <v>7</v>
@@ -1417,8 +1420,8 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
+      <c r="G11">
+        <v>575</v>
       </c>
       <c r="H11" s="2">
         <v>7</v>
@@ -1429,8 +1432,8 @@
       <c r="J11" s="2">
         <v>0.5</v>
       </c>
-      <c r="L11" s="2">
-        <v>0</v>
+      <c r="L11">
+        <v>5750</v>
       </c>
       <c r="M11" s="2">
         <v>7</v>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="2">
-        <v>0</v>
+        <v>1314</v>
       </c>
       <c r="C12" s="2">
         <v>8</v>
@@ -1455,8 +1458,8 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
+      <c r="G12">
+        <v>657</v>
       </c>
       <c r="H12" s="2">
         <v>8</v>
@@ -1467,8 +1470,8 @@
       <c r="J12" s="2">
         <v>0.5</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
+      <c r="L12">
+        <v>6570</v>
       </c>
       <c r="M12" s="2">
         <v>8</v>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="2">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="C13" s="2">
         <v>9</v>
@@ -1493,8 +1496,8 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
+      <c r="G13">
+        <v>739.5</v>
       </c>
       <c r="H13" s="2">
         <v>9</v>
@@ -1505,8 +1508,8 @@
       <c r="J13" s="2">
         <v>0.5</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
+      <c r="L13">
+        <v>7395</v>
       </c>
       <c r="M13" s="2">
         <v>9</v>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8104AF37-E1D3-3642-AF39-3FEA3BBF52AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6799C49-943D-E348-AFA9-B821AE7F6439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="2" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="1" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
@@ -318,14 +318,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="B18:D23" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -456,14 +456,14 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3C67841A-ACBD-AB40-A2C6-C116DFD040B2}" name="fn in Hz" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{8D38A66A-AA02-5541-A3B7-505B3C69ABF7}" name="n" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:E13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:E13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="B4:E13" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -471,17 +471,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="G4:J13" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="G4:J13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="G4:J13" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -489,17 +489,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="L4:O13" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="L4:O13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="L4:O13" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -507,17 +507,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:E14" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:E14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B4:E14" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -525,17 +525,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="fn in Hz" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="fn in Hz" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:F12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:F12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B4:F12" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -544,11 +544,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3082E1-7E34-4048-8DA0-CFD18FE20702}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1074,39 +1074,59 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="18" customHeight="1">
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:4" ht="18" customHeight="1">
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:4" ht="18" customHeight="1">
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:4" ht="18" customHeight="1">
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:4" ht="18" customHeight="1">
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
       <c r="C23" s="2">
         <v>4</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
   <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
@@ -1536,7 +1556,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B7" sqref="B7:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1567,7 +1587,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -1579,7 +1601,9 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1591,7 +1615,9 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -1603,7 +1629,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
@@ -1615,7 +1643,9 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
@@ -1627,7 +1657,9 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
@@ -1639,7 +1671,9 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -1651,7 +1685,9 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
@@ -1663,7 +1699,9 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
@@ -1675,7 +1713,9 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -1699,7 +1739,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1734,92 +1774,140 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>0.6</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>0.6</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>0.6</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>0.6</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2">
         <v>0.6</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2">
         <v>0.6</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
         <v>0.6</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2">
         <v>0.6</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6799C49-943D-E348-AFA9-B821AE7F6439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E47619-BBED-2749-B1C0-1EB2266D14F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="1" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="3" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>-</t>
   </si>
@@ -213,6 +213,30 @@
       <t xml:space="preserve"> in Hz</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in Hz</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -525,7 +549,7 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="fn in Hz" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="f1 in Hz" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="11"/>
@@ -896,7 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3082E1-7E34-4048-8DA0-CFD18FE20702}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="D19" sqref="D19:D23"/>
     </sheetView>
   </sheetViews>
@@ -1142,7 +1166,7 @@
   <dimension ref="A2:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="B5" sqref="B5:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1555,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F492D1-66B2-CA4D-8806-FC125DF2E804}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1574,7 +1598,7 @@
     </row>
     <row r="4" spans="1:5" ht="17">
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1588,7 +1612,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="2">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1602,7 +1626,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="2">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1616,7 +1640,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1630,7 +1654,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="2">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1644,7 +1668,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="2">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1658,7 +1682,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="2">
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1672,7 +1696,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="2">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1686,7 +1710,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="2">
-        <v>0</v>
+        <v>1314</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1700,7 +1724,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="2">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1714,7 +1738,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="2">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E47619-BBED-2749-B1C0-1EB2266D14F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E03795-1665-594B-9BA2-09CC9D06D4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="3" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="2" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>-</t>
   </si>
@@ -236,6 +236,12 @@
       </rPr>
       <t xml:space="preserve"> in Hz</t>
     </r>
+  </si>
+  <si>
+    <t>m(saite) in kg</t>
+  </si>
+  <si>
+    <t>m(Saiten) in kg</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="46">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -453,95 +471,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}" name="Table1" displayName="Table1" ref="B4:E13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="B4:E13" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}" name="Table1" displayName="Table1" ref="B4:F13" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="B4:F13" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{49A74B27-AB55-2C45-B404-17BFD5862C1B}" name="fn in Hz" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{DF3E784A-D43A-9144-B675-D2303F2C1901}" name="n" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{466F7D5D-012C-4540-8451-0B7818BBDDE3}" name="L in m" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{41824933-9B57-9B46-ACB9-4188D316CD4C}" name="M in kg" dataDxfId="38"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{49A74B27-AB55-2C45-B404-17BFD5862C1B}" name="fn in Hz" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{DF3E784A-D43A-9144-B675-D2303F2C1901}" name="n" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{466F7D5D-012C-4540-8451-0B7818BBDDE3}" name="L in m" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{41824933-9B57-9B46-ACB9-4188D316CD4C}" name="M in kg" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{6468468A-9B32-D640-BBCA-DFC94F954111}" name="m(saite) in kg" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B18:D23" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C67841A-ACBD-AB40-A2C6-C116DFD040B2}" name="fn in Hz" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{8D38A66A-AA02-5541-A3B7-505B3C69ABF7}" name="n" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3C67841A-ACBD-AB40-A2C6-C116DFD040B2}" name="fn in Hz" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{8D38A66A-AA02-5541-A3B7-505B3C69ABF7}" name="n" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:E13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="B4:E13" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:F13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="B4:F13" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="27"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{5B784C43-18D6-D149-95D1-AE5F2038D4B6}" name="m(Saiten) in kg" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="G4:J13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="G4:J13" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="H4:L13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="H4:L13" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="22"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{EDBD39CE-68F2-4747-A67A-03E7CE008D80}" name="m(Saiten) in kg" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="L4:O13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="L4:O13" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="N4:R13" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="N4:R13" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="17"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{21ABC2FB-7D06-074E-B917-F7A131D058F4}" name="m(Saiten) in kg" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:E14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:E14" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B4:E14" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -549,17 +575,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="f1 in Hz" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="f1 in Hz" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:F12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:F12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B4:F12" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -568,11 +594,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -918,10 +944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3082E1-7E34-4048-8DA0-CFD18FE20702}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D23"/>
+      <selection activeCell="F5" sqref="F5:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -930,7 +956,7 @@
     <col min="2" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -951,8 +977,11 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="B5" s="2">
         <v>161</v>
       </c>
@@ -965,8 +994,11 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="F5" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
       <c r="B6" s="2">
         <v>325</v>
       </c>
@@ -979,8 +1011,11 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="F6" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
       <c r="B7" s="2">
         <v>489</v>
       </c>
@@ -993,8 +1028,11 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="F7" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
       <c r="B8" s="2">
         <v>654</v>
       </c>
@@ -1007,8 +1045,11 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="F8" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="B9" s="2">
         <v>818</v>
       </c>
@@ -1021,8 +1062,11 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="F9" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="B10" s="2">
         <v>984</v>
       </c>
@@ -1035,8 +1079,11 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="F10" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="B11" s="2">
         <v>1150</v>
       </c>
@@ -1049,8 +1096,11 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="F11" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="B12" s="2">
         <v>1314</v>
       </c>
@@ -1063,8 +1113,11 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="F12" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
       <c r="B13" s="2">
         <v>1479</v>
       </c>
@@ -1077,8 +1130,11 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="17">
+      <c r="F13" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,29 +1219,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
-  <dimension ref="A2:O13"/>
+  <dimension ref="A2:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17">
+    <row r="4" spans="1:18" ht="17">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1198,32 +1257,41 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="R4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="B5" s="2">
         <v>161</v>
       </c>
@@ -1236,32 +1304,41 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H5">
         <v>80.5</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
       <c r="I5" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N5">
         <v>805</v>
       </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.6</v>
-      </c>
       <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="R5" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="B6" s="2">
         <v>325</v>
       </c>
@@ -1274,32 +1351,41 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H6">
         <v>162.5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
-        <v>0.6</v>
-      </c>
       <c r="J6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K6" s="2">
         <v>0.5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N6">
         <v>1625</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q6" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="R6" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="B7" s="2">
         <v>489</v>
       </c>
@@ -1312,32 +1398,41 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H7">
         <v>244.5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="2">
-        <v>0.6</v>
-      </c>
       <c r="J7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.5</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N7">
         <v>2445</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>3</v>
       </c>
-      <c r="N7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="R7" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="B8" s="2">
         <v>654</v>
       </c>
@@ -1350,32 +1445,41 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H8">
         <v>327</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>4</v>
       </c>
-      <c r="I8" s="2">
-        <v>0.6</v>
-      </c>
       <c r="J8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="2">
         <v>0.5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N8">
         <v>3270</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>4</v>
       </c>
-      <c r="N8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q8" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="R8" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="B9" s="2">
         <v>818</v>
       </c>
@@ -1388,32 +1492,41 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H9">
         <v>409</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>5</v>
       </c>
-      <c r="I9" s="2">
-        <v>0.6</v>
-      </c>
       <c r="J9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K9" s="2">
         <v>0.5</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N9">
         <v>4090</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>5</v>
       </c>
-      <c r="N9" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q9" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="R9" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="B10" s="2">
         <v>984</v>
       </c>
@@ -1426,32 +1539,41 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H10">
         <v>492</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>6</v>
       </c>
-      <c r="I10" s="2">
-        <v>0.6</v>
-      </c>
       <c r="J10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K10" s="2">
         <v>0.5</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N10">
         <v>4920</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>6</v>
       </c>
-      <c r="N10" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q10" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="R10" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="B11" s="2">
         <v>1150</v>
       </c>
@@ -1464,32 +1586,41 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H11">
         <v>575</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>7</v>
       </c>
-      <c r="I11" s="2">
-        <v>0.6</v>
-      </c>
       <c r="J11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="2">
         <v>0.5</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N11">
         <v>5750</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>7</v>
       </c>
-      <c r="N11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q11" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="R11" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="B12" s="2">
         <v>1314</v>
       </c>
@@ -1502,32 +1633,41 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H12">
         <v>657</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>8</v>
       </c>
-      <c r="I12" s="2">
-        <v>0.6</v>
-      </c>
       <c r="J12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="2">
         <v>0.5</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N12">
         <v>6570</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>8</v>
       </c>
-      <c r="N12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q12" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="R12" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="B13" s="2">
         <v>1479</v>
       </c>
@@ -1540,29 +1680,38 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H13">
         <v>739.5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>9</v>
       </c>
-      <c r="I13" s="2">
-        <v>0.6</v>
-      </c>
       <c r="J13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="2">
         <v>0.5</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="N13">
         <v>7395</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>9</v>
       </c>
-      <c r="N13" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q13" s="2">
         <v>0.25</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1579,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F492D1-66B2-CA4D-8806-FC125DF2E804}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E03795-1665-594B-9BA2-09CC9D06D4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF75BC1-3EC3-5F49-A845-89D33B31A196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="2" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="4" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>-</t>
   </si>
@@ -238,16 +238,82 @@
     </r>
   </si>
   <si>
-    <t>m(saite) in kg</t>
-  </si>
-  <si>
-    <t>m(Saiten) in kg</t>
+    <t>0.3 Hz Fehler</t>
+  </si>
+  <si>
+    <t>0.2 Hz Fehler</t>
+  </si>
+  <si>
+    <t>0.01 m Fehler</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in N</t>
+    </r>
+  </si>
+  <si>
+    <t>0.01m</t>
+  </si>
+  <si>
+    <t>0.03 Hz</t>
+  </si>
+  <si>
+    <t>1 g</t>
+  </si>
+  <si>
+    <t>1 kg in der dritten Kerbe</t>
+  </si>
+  <si>
+    <t>0.90 kg in der dritten Kerbe</t>
+  </si>
+  <si>
+    <t>0.80 kg in der dritten Kerbe</t>
+  </si>
+  <si>
+    <t>0.70 kg in der dritten Kerbe</t>
+  </si>
+  <si>
+    <t>0.60 kg in der dritten Kerbe</t>
+  </si>
+  <si>
+    <t>0.5 kg in der dritten Kerbe</t>
+  </si>
+  <si>
+    <t>0.4 kg in der dritten Kerbe</t>
+  </si>
+  <si>
+    <t>0.3 kg in der dritten Kerbe</t>
+  </si>
+  <si>
+    <t>F0 in N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -300,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -312,54 +378,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="48">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -367,19 +439,36 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -471,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}" name="Table1" displayName="Table1" ref="B4:F13" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}" name="Table1" displayName="Table1" ref="B4:F13" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="B4:F13" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -480,34 +569,36 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{49A74B27-AB55-2C45-B404-17BFD5862C1B}" name="fn in Hz" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{DF3E784A-D43A-9144-B675-D2303F2C1901}" name="n" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{466F7D5D-012C-4540-8451-0B7818BBDDE3}" name="L in m" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{41824933-9B57-9B46-ACB9-4188D316CD4C}" name="M in kg" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{6468468A-9B32-D640-BBCA-DFC94F954111}" name="m(saite) in kg" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{49A74B27-AB55-2C45-B404-17BFD5862C1B}" name="fn in Hz" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{DF3E784A-D43A-9144-B675-D2303F2C1901}" name="n" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{466F7D5D-012C-4540-8451-0B7818BBDDE3}" name="L in m" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{41824933-9B57-9B46-ACB9-4188D316CD4C}" name="M in kg" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{841017D9-1A04-F64D-AD81-8D29A597C135}" name="F0 in N" dataDxfId="11">
+      <calculatedColumnFormula>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="B18:D23" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C67841A-ACBD-AB40-A2C6-C116DFD040B2}" name="fn in Hz" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{8D38A66A-AA02-5541-A3B7-505B3C69ABF7}" name="n" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3C67841A-ACBD-AB40-A2C6-C116DFD040B2}" name="fn in Hz" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{8D38A66A-AA02-5541-A3B7-505B3C69ABF7}" name="n" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:F13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:F13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B4:F13" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -516,18 +607,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{5B784C43-18D6-D149-95D1-AE5F2038D4B6}" name="m(Saiten) in kg" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{5B784C43-18D6-D149-95D1-AE5F2038D4B6}" name="F0 in N" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="H4:L13" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="H4:L13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="H4:L13" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -536,18 +627,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{EDBD39CE-68F2-4747-A67A-03E7CE008D80}" name="m(Saiten) in kg" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{EDBD39CE-68F2-4747-A67A-03E7CE008D80}" name="F0 in N" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="N4:R13" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="N4:R13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="N4:R13" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -556,37 +647,19 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{21ABC2FB-7D06-074E-B917-F7A131D058F4}" name="m(Saiten) in kg" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{21ABC2FB-7D06-074E-B917-F7A131D058F4}" name="F0 in N" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:E14" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="B4:E14" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="f1 in Hz" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:F12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B4:F12" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:F14" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="B4:F14" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -594,11 +667,37 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="f1 in Hz" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{D64068DB-E09C-0B43-A632-78B30077CDBD}" name="F0 in N" dataDxfId="7">
+      <calculatedColumnFormula>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:G12" totalsRowShown="0" headerRowDxfId="20" dataDxfId="1">
+  <autoFilter ref="B4:G12" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{CD2C33DF-04EB-AB4F-9798-180CB360BC50}" name="F0 in N" dataDxfId="0">
+      <calculatedColumnFormula>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -901,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8EE8EB-3159-9A4D-BC2A-A2594BEF3010}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -912,29 +1011,41 @@
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:5">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -944,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3082E1-7E34-4048-8DA0-CFD18FE20702}">
-  <dimension ref="A2:F23"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -956,7 +1067,7 @@
     <col min="2" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
+    <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -978,29 +1089,33 @@
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1">
+      <c r="B5" s="3">
+        <v>82.52</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <f>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="B5" s="2">
-        <v>161</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="B6" s="2">
-        <v>325</v>
+    <row r="6" spans="1:8" ht="18" customHeight="1">
+      <c r="B6" s="5">
+        <v>164.7</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1009,15 +1124,19 @@
         <v>0.6</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="B7" s="2">
-        <v>489</v>
+        <f>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1">
+      <c r="B7" s="5">
+        <v>247.5</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1026,15 +1145,19 @@
         <v>0.6</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="B8" s="2">
-        <v>654</v>
+        <f>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="B8" s="5">
+        <v>329.7</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1043,15 +1166,19 @@
         <v>0.6</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="B9" s="2">
-        <v>818</v>
+        <f>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1">
+      <c r="B9" s="5">
+        <v>411.7</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1060,15 +1187,16 @@
         <v>0.6</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1">
-      <c r="B10" s="2">
-        <v>984</v>
+        <f>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1">
+      <c r="B10" s="5">
+        <v>495.1</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -1077,15 +1205,16 @@
         <v>0.6</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="B11" s="2">
-        <v>1150</v>
+        <f>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1">
+      <c r="B11" s="5">
+        <v>579.29999999999995</v>
       </c>
       <c r="C11" s="2">
         <v>7</v>
@@ -1094,15 +1223,16 @@
         <v>0.6</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="B12" s="2">
-        <v>1314</v>
+        <f>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1">
+      <c r="B12" s="5">
+        <v>670.1</v>
       </c>
       <c r="C12" s="2">
         <v>8</v>
@@ -1111,15 +1241,16 @@
         <v>0.6</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="B13" s="2">
-        <v>1479</v>
+        <f>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1">
+      <c r="B13" s="5">
+        <v>742.7</v>
       </c>
       <c r="C13" s="2">
         <v>9</v>
@@ -1128,13 +1259,14 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17">
+        <f>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18" customHeight="1">
+    <row r="18" spans="2:8" ht="18" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1153,59 +1285,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="18" customHeight="1">
+    <row r="19" spans="2:8" ht="18" customHeight="1">
       <c r="B19" s="2">
-        <v>0</v>
+        <v>247.5</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="18" customHeight="1">
+      <c r="D19" s="5">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18" customHeight="1">
       <c r="B20" s="2">
-        <v>0</v>
+        <v>247.5</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18" customHeight="1">
+      <c r="D20" s="5">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1">
       <c r="B21" s="2">
-        <v>0</v>
+        <v>329.7</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18" customHeight="1">
+      <c r="D21" s="5">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1">
       <c r="B22" s="2">
-        <v>0</v>
+        <v>329.7</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18" customHeight="1">
+      <c r="D22" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18" customHeight="1">
       <c r="B23" s="2">
-        <v>0</v>
+        <v>329.7</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
+      <c r="D23" s="5">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1221,15 +1356,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
   <dimension ref="A2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
     <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1258,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
@@ -1273,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>5</v>
@@ -1288,12 +1426,12 @@
         <v>4</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" s="2">
-        <v>161</v>
+        <v>46.5</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1305,10 +1443,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="H5">
-        <v>80.5</v>
+        <f>(Table14[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>10.33</v>
+      </c>
+      <c r="H5" s="6">
+        <v>66.099999999999994</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1317,13 +1456,14 @@
         <v>0.6</v>
       </c>
       <c r="K5" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L5" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N5">
-        <v>805</v>
+        <f>(Table15[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+      <c r="N5" s="3">
+        <v>82.52</v>
       </c>
       <c r="O5" s="2">
         <v>1</v>
@@ -1332,15 +1472,16 @@
         <v>0.6</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R5" s="2">
-        <v>1E-3</v>
+        <f>(Table16[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="2">
-        <v>325</v>
+        <v>93.2</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1352,10 +1493,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="H6">
-        <v>162.5</v>
+        <f>(Table14[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>10.33</v>
+      </c>
+      <c r="H6" s="6">
+        <v>132.80000000000001</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
@@ -1364,13 +1506,14 @@
         <v>0.6</v>
       </c>
       <c r="K6" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L6" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N6">
-        <v>1625</v>
+        <f>(Table15[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+      <c r="N6" s="5">
+        <v>164.7</v>
       </c>
       <c r="O6" s="2">
         <v>2</v>
@@ -1379,15 +1522,16 @@
         <v>0.6</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R6" s="2">
-        <v>1E-3</v>
+        <f>(Table16[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="2">
-        <v>489</v>
+        <v>143.4</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -1399,10 +1543,11 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="H7">
-        <v>244.5</v>
+        <f>(Table14[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>10.33</v>
+      </c>
+      <c r="H7" s="6">
+        <v>198.7</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -1411,13 +1556,14 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N7">
-        <v>2445</v>
+        <f>(Table15[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+      <c r="N7" s="5">
+        <v>247.5</v>
       </c>
       <c r="O7" s="2">
         <v>3</v>
@@ -1426,15 +1572,16 @@
         <v>0.6</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R7" s="2">
-        <v>1E-3</v>
+        <f>(Table16[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="2">
-        <v>654</v>
+        <v>190.1</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -1446,10 +1593,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="H8">
-        <v>327</v>
+        <f>(Table14[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>10.33</v>
+      </c>
+      <c r="H8" s="6">
+        <v>266.2</v>
       </c>
       <c r="I8" s="2">
         <v>4</v>
@@ -1458,13 +1606,14 @@
         <v>0.6</v>
       </c>
       <c r="K8" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L8" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N8">
-        <v>3270</v>
+        <f>(Table15[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+      <c r="N8" s="5">
+        <v>329.7</v>
       </c>
       <c r="O8" s="2">
         <v>4</v>
@@ -1473,15 +1622,16 @@
         <v>0.6</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R8" s="2">
-        <v>1E-3</v>
+        <f>(Table16[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="2">
-        <v>818</v>
+        <v>238.1</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1493,10 +1643,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="H9">
-        <v>409</v>
+        <f>(Table14[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>10.33</v>
+      </c>
+      <c r="H9" s="6">
+        <v>334</v>
       </c>
       <c r="I9" s="2">
         <v>5</v>
@@ -1505,13 +1656,14 @@
         <v>0.6</v>
       </c>
       <c r="K9" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L9" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N9">
-        <v>4090</v>
+        <f>(Table15[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+      <c r="N9" s="5">
+        <v>411.7</v>
       </c>
       <c r="O9" s="2">
         <v>5</v>
@@ -1520,15 +1672,16 @@
         <v>0.6</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R9" s="2">
-        <v>1E-3</v>
+        <f>(Table16[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="2">
-        <v>984</v>
+        <v>287.7</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
@@ -1540,10 +1693,11 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="H10">
-        <v>492</v>
+        <f>(Table14[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>10.33</v>
+      </c>
+      <c r="H10" s="6">
+        <v>401.5</v>
       </c>
       <c r="I10" s="2">
         <v>6</v>
@@ -1552,13 +1706,14 @@
         <v>0.6</v>
       </c>
       <c r="K10" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L10" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N10">
-        <v>4920</v>
+        <f>(Table15[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+      <c r="N10" s="5">
+        <v>495.1</v>
       </c>
       <c r="O10" s="2">
         <v>6</v>
@@ -1567,15 +1722,16 @@
         <v>0.6</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R10" s="2">
-        <v>1E-3</v>
+        <f>(Table16[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="2">
-        <v>1150</v>
+        <v>336.1</v>
       </c>
       <c r="C11" s="2">
         <v>7</v>
@@ -1587,10 +1743,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="H11">
-        <v>575</v>
+        <f>(Table14[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>10.33</v>
+      </c>
+      <c r="H11" s="6">
+        <v>468.5</v>
       </c>
       <c r="I11" s="2">
         <v>7</v>
@@ -1599,13 +1756,14 @@
         <v>0.6</v>
       </c>
       <c r="K11" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L11" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N11">
-        <v>5750</v>
+        <f>(Table15[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+      <c r="N11" s="5">
+        <v>579.29999999999995</v>
       </c>
       <c r="O11" s="2">
         <v>7</v>
@@ -1614,15 +1772,16 @@
         <v>0.6</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R11" s="2">
-        <v>1E-3</v>
+        <f>(Table16[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="2">
-        <v>1314</v>
+        <v>385.4</v>
       </c>
       <c r="C12" s="2">
         <v>8</v>
@@ -1634,10 +1793,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="H12">
-        <v>657</v>
+        <f>(Table14[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>10.33</v>
+      </c>
+      <c r="H12" s="6">
+        <v>536.79999999999995</v>
       </c>
       <c r="I12" s="2">
         <v>8</v>
@@ -1646,13 +1806,14 @@
         <v>0.6</v>
       </c>
       <c r="K12" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L12" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N12">
-        <v>6570</v>
+        <f>(Table15[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+      <c r="N12" s="5">
+        <v>670.1</v>
       </c>
       <c r="O12" s="2">
         <v>8</v>
@@ -1661,15 +1822,16 @@
         <v>0.6</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R12" s="2">
-        <v>1E-3</v>
+        <f>(Table16[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="2">
-        <v>1479</v>
+        <v>435.1</v>
       </c>
       <c r="C13" s="2">
         <v>9</v>
@@ -1681,10 +1843,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="H13">
-        <v>739.5</v>
+        <f>(Table14[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>10.33</v>
+      </c>
+      <c r="H13" s="6">
+        <v>604.9</v>
       </c>
       <c r="I13" s="2">
         <v>9</v>
@@ -1693,13 +1856,14 @@
         <v>0.6</v>
       </c>
       <c r="K13" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L13" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="N13">
-        <v>7395</v>
+        <f>(Table15[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+      <c r="N13" s="5">
+        <v>742.7</v>
       </c>
       <c r="O13" s="2">
         <v>9</v>
@@ -1708,10 +1872,11 @@
         <v>0.6</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="R13" s="2">
-        <v>1E-3</v>
+        <f>(Table16[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
       </c>
     </row>
   </sheetData>
@@ -1726,18 +1891,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F492D1-66B2-CA4D-8806-FC125DF2E804}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A2" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="17">
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:6" ht="17">
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1758,10 +1924,13 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="2">
-        <v>161</v>
+        <v>206.3</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1770,12 +1939,16 @@
         <v>0.2</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <f>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" s="2">
-        <v>325</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1784,12 +1957,16 @@
         <v>0.25</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <f>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7" s="2">
-        <v>489</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1798,12 +1975,16 @@
         <v>0.3</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <f>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" s="2">
-        <v>654</v>
+        <v>115.8</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1812,91 +1993,119 @@
         <v>0.35</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <f>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" s="2">
-        <v>818</v>
+        <v>98.98</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="2">
-        <v>984</v>
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <f>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="3">
+        <v>88.9</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <f>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="B11" s="2">
-        <v>1150</v>
+        <v>78.95</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <f>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="B12" s="2">
-        <v>1314</v>
+        <v>72.290000000000006</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="2">
-        <v>1479</v>
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <f>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="3">
+        <v>66.099999999999994</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="2">
-        <v>1800</v>
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <f>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="3">
+        <v>62.69</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <f>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>20.14</v>
       </c>
     </row>
   </sheetData>
@@ -1909,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856E6C-5E8C-6A41-A8A7-A9E5D2BE7E03}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1921,7 +2130,7 @@
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +2138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17">
+    <row r="4" spans="1:7" ht="17">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1945,141 +2154,176 @@
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32">
+      <c r="B5" s="7">
+        <v>46.08</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="7">
+        <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>9.3490000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32">
+      <c r="B6" s="7">
+        <v>51.18</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="7">
+        <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>12.292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32">
+      <c r="B7" s="7">
+        <v>57.05</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7">
+        <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>15.234999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32">
+      <c r="B8" s="7">
+        <v>64.5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7">
+        <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>18.178000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="32">
+      <c r="B9" s="7">
+        <v>67.31</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7">
+        <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>21.121000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32">
+      <c r="B10" s="7">
+        <v>71.38</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="7">
+        <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>24.064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32">
+      <c r="B11" s="7">
+        <v>79.84</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7">
+        <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>27.007000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32">
+      <c r="B12" s="7">
+        <v>81.37</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7">
+        <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
+        <v>29.95</v>
       </c>
     </row>
   </sheetData>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF75BC1-3EC3-5F49-A845-89D33B31A196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2875A464-0D91-4B49-9EB6-CE199537FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="4" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2875A464-0D91-4B49-9EB6-CE199537FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0AC97C-8124-6A40-8754-CD23136F7F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="4" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="2" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Task 3" sheetId="3" r:id="rId4"/>
     <sheet name="Task 4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -398,12 +398,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -416,10 +416,45 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -427,117 +462,82 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}" name="Table1" displayName="Table1" ref="B4:F13" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}" name="Table1" displayName="Table1" ref="B4:F13" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="B4:F13" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -569,11 +569,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{49A74B27-AB55-2C45-B404-17BFD5862C1B}" name="fn in Hz" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{DF3E784A-D43A-9144-B675-D2303F2C1901}" name="n" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{466F7D5D-012C-4540-8451-0B7818BBDDE3}" name="L in m" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{41824933-9B57-9B46-ACB9-4188D316CD4C}" name="M in kg" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{841017D9-1A04-F64D-AD81-8D29A597C135}" name="F0 in N" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{49A74B27-AB55-2C45-B404-17BFD5862C1B}" name="fn in Hz" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{DF3E784A-D43A-9144-B675-D2303F2C1901}" name="n" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{466F7D5D-012C-4540-8451-0B7818BBDDE3}" name="L in m" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{41824933-9B57-9B46-ACB9-4188D316CD4C}" name="M in kg" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{841017D9-1A04-F64D-AD81-8D29A597C135}" name="F0 in N" dataDxfId="41">
       <calculatedColumnFormula>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -582,23 +582,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B18:D23" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C67841A-ACBD-AB40-A2C6-C116DFD040B2}" name="fn in Hz" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{8D38A66A-AA02-5541-A3B7-505B3C69ABF7}" name="n" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{3C67841A-ACBD-AB40-A2C6-C116DFD040B2}" name="fn in Hz" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{8D38A66A-AA02-5541-A3B7-505B3C69ABF7}" name="n" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:F13" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:F13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="B4:F13" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -607,18 +607,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{5B784C43-18D6-D149-95D1-AE5F2038D4B6}" name="F0 in N" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{5B784C43-18D6-D149-95D1-AE5F2038D4B6}" name="F0 in N" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="H4:L13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="H4:L13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="H4:L13" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -627,18 +627,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{EDBD39CE-68F2-4747-A67A-03E7CE008D80}" name="F0 in N" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{EDBD39CE-68F2-4747-A67A-03E7CE008D80}" name="F0 in N" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="N4:R13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="N4:R13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="N4:R13" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -647,18 +647,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{21ABC2FB-7D06-074E-B917-F7A131D058F4}" name="F0 in N" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{21ABC2FB-7D06-074E-B917-F7A131D058F4}" name="F0 in N" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:F14" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:F14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B4:F14" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -667,11 +667,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="f1 in Hz" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{D64068DB-E09C-0B43-A632-78B30077CDBD}" name="F0 in N" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="f1 in Hz" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D64068DB-E09C-0B43-A632-78B30077CDBD}" name="F0 in N" dataDxfId="8">
       <calculatedColumnFormula>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -680,7 +680,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:G12" totalsRowShown="0" headerRowDxfId="20" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:G12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B4:G12" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -690,11 +690,11 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{CD2C33DF-04EB-AB4F-9798-180CB360BC50}" name="F0 in N" dataDxfId="0">
       <calculatedColumnFormula>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</calculatedColumnFormula>
     </tableColumn>
@@ -1058,7 +1058,7 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1356,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
   <dimension ref="A2:R13"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2120,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856E6C-5E8C-6A41-A8A7-A9E5D2BE7E03}">
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A3" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0AC97C-8124-6A40-8754-CD23136F7F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF185DB-17EA-B44E-B2CF-BEEA451A1F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="2" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="4" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
@@ -690,7 +690,7 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="fn in Hz" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="f1 in Hz" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="2"/>
@@ -1356,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
   <dimension ref="A2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2120,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856E6C-5E8C-6A41-A8A7-A9E5D2BE7E03}">
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="4" spans="1:7" ht="17">
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF185DB-17EA-B44E-B2CF-BEEA451A1F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD492B1-5112-6E4D-A6B6-6A4B3D43895D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="4" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
@@ -2118,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856E6C-5E8C-6A41-A8A7-A9E5D2BE7E03}">
-  <dimension ref="A2:G12"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2130,7 +2130,7 @@
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:8" ht="17">
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2157,8 +2157,9 @@
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="32">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="32">
       <c r="B5" s="7">
         <v>46.08</v>
       </c>
@@ -2178,8 +2179,12 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>9.3490000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="32">
+      <c r="H5" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>3.0576134484267303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32">
       <c r="B6" s="7">
         <v>51.18</v>
       </c>
@@ -2199,8 +2204,12 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>12.292</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="32">
+      <c r="H6" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>3.5059948659403366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="32">
       <c r="B7" s="7">
         <v>57.05</v>
       </c>
@@ -2220,8 +2229,12 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>15.234999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="32">
+      <c r="H7" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>3.9032038122547483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32">
       <c r="B8" s="7">
         <v>64.5</v>
       </c>
@@ -2241,8 +2254,12 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>18.178000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="32">
+      <c r="H8" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>4.2635665821000144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32">
       <c r="B9" s="7">
         <v>67.31</v>
       </c>
@@ -2262,8 +2279,12 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>21.121000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="32">
+      <c r="H9" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>4.5957589144775648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32">
       <c r="B10" s="7">
         <v>71.38</v>
       </c>
@@ -2283,8 +2304,12 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>24.064</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="32">
+      <c r="H10" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>4.9055071093618849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32">
       <c r="B11" s="7">
         <v>79.84</v>
       </c>
@@ -2304,8 +2329,12 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>27.007000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="32">
+      <c r="H11" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>5.1968259543686859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32">
       <c r="B12" s="7">
         <v>81.37</v>
       </c>
@@ -2324,6 +2353,10 @@
       <c r="G12" s="7">
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>29.95</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>5.472659317004851</v>
       </c>
     </row>
   </sheetData>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD492B1-5112-6E4D-A6B6-6A4B3D43895D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E8E6F7-2E9F-4E47-BB31-53B4ACDCE6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="4" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
@@ -2120,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856E6C-5E8C-6A41-A8A7-A9E5D2BE7E03}">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E8E6F7-2E9F-4E47-BB31-53B4ACDCE6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C13A4-28DC-4448-82A4-0AAFF55BAF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="4" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
@@ -1058,7 +1058,7 @@
   <dimension ref="A2:H23"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D23" sqref="B19:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1356,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
   <dimension ref="A2:R13"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="D1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F492D1-66B2-CA4D-8806-FC125DF2E804}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2120,14 +2120,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856E6C-5E8C-6A41-A8A7-A9E5D2BE7E03}">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -2179,10 +2181,7 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>9.3490000000000002</v>
       </c>
-      <c r="H5" s="7">
-        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
-        <v>3.0576134484267303</v>
-      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="32">
       <c r="B6" s="7">
@@ -2204,10 +2203,7 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>12.292</v>
       </c>
-      <c r="H6" s="7">
-        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
-        <v>3.5059948659403366</v>
-      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="32">
       <c r="B7" s="7">
@@ -2229,10 +2225,7 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>15.234999999999999</v>
       </c>
-      <c r="H7" s="7">
-        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
-        <v>3.9032038122547483</v>
-      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="32">
       <c r="B8" s="7">
@@ -2254,10 +2247,7 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>18.178000000000001</v>
       </c>
-      <c r="H8" s="7">
-        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
-        <v>4.2635665821000144</v>
-      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="32">
       <c r="B9" s="7">
@@ -2279,10 +2269,7 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>21.121000000000002</v>
       </c>
-      <c r="H9" s="7">
-        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
-        <v>4.5957589144775648</v>
-      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="32">
       <c r="B10" s="7">
@@ -2304,10 +2291,7 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>24.064</v>
       </c>
-      <c r="H10" s="7">
-        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
-        <v>4.9055071093618849</v>
-      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="32">
       <c r="B11" s="7">
@@ -2329,10 +2313,7 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>27.007000000000001</v>
       </c>
-      <c r="H11" s="7">
-        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
-        <v>5.1968259543686859</v>
-      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="32">
       <c r="B12" s="7">
@@ -2354,10 +2335,7 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>29.95</v>
       </c>
-      <c r="H12" s="7">
-        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
-        <v>5.472659317004851</v>
-      </c>
+      <c r="H12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C13A4-28DC-4448-82A4-0AAFF55BAF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B341C828-E7E5-EF4F-8B32-D3C9BD0F415F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="4" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="2" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
@@ -1356,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
   <dimension ref="A2:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:R13"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1399,7 +1399,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>2</v>
@@ -2120,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856E6C-5E8C-6A41-A8A7-A9E5D2BE7E03}">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="91" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="91" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B341C828-E7E5-EF4F-8B32-D3C9BD0F415F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F94F7D6-42DE-9640-AF9D-52CB2A047DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="2" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
+    <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="4" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Messunsicherheiten" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>-</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>F0 in N</t>
+  </si>
+  <si>
+    <t>sqrt(F0) in sqrt(N)</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="49">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -560,7 +567,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}" name="Table1" displayName="Table1" ref="B4:F13" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}" name="Table1" displayName="Table1" ref="B4:F13" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="B4:F13" xr:uid="{9799FCC7-E3CB-F147-95E4-7DBD94498F82}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -569,11 +576,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{49A74B27-AB55-2C45-B404-17BFD5862C1B}" name="fn in Hz" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{DF3E784A-D43A-9144-B675-D2303F2C1901}" name="n" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{466F7D5D-012C-4540-8451-0B7818BBDDE3}" name="L in m" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{41824933-9B57-9B46-ACB9-4188D316CD4C}" name="M in kg" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{841017D9-1A04-F64D-AD81-8D29A597C135}" name="F0 in N" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{49A74B27-AB55-2C45-B404-17BFD5862C1B}" name="fn in Hz" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{DF3E784A-D43A-9144-B675-D2303F2C1901}" name="n" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{466F7D5D-012C-4540-8451-0B7818BBDDE3}" name="L in m" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{41824933-9B57-9B46-ACB9-4188D316CD4C}" name="M in kg" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{841017D9-1A04-F64D-AD81-8D29A597C135}" name="F0 in N" dataDxfId="42">
       <calculatedColumnFormula>(Table1[[#This Row],[M in kg]]*9.81) + 0.52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -582,23 +589,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}" name="Table2" displayName="Table2" ref="B18:D23" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="B18:D23" xr:uid="{35855598-C0B3-7F4B-BDAC-42C05A38633F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C67841A-ACBD-AB40-A2C6-C116DFD040B2}" name="fn in Hz" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{8D38A66A-AA02-5541-A3B7-505B3C69ABF7}" name="n" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{3C67841A-ACBD-AB40-A2C6-C116DFD040B2}" name="fn in Hz" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{8D38A66A-AA02-5541-A3B7-505B3C69ABF7}" name="n" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{E625F38D-893B-B048-87F4-0DA04C5B919A}" name="x(Knoten) in m" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:F13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}" name="Table14" displayName="Table14" ref="B4:F13" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="B4:F13" xr:uid="{CA1F67FA-AF48-DF4D-8698-4688D7300BFF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -607,18 +614,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{5B784C43-18D6-D149-95D1-AE5F2038D4B6}" name="F0 in N" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{5CE74821-3CA7-7F41-A340-50A88F078663}" name="fn in Hz" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{11E5B966-F006-FE4E-A38C-4CB8760C2584}" name="n" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{A3AA1ADC-023E-7448-89E7-BDAD3122080D}" name="L in m" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{9D89E33D-81D5-774C-AFC6-7804FDB9433F}" name="M in kg" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{5B784C43-18D6-D149-95D1-AE5F2038D4B6}" name="F0 in N" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="H4:L13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}" name="Table15" displayName="Table15" ref="H4:L13" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="H4:L13" xr:uid="{699B8C0F-5E50-9D43-B724-1EE48FFE9DF6}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -627,18 +634,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{EDBD39CE-68F2-4747-A67A-03E7CE008D80}" name="F0 in N" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{3A1A20D1-7D08-5443-BA89-3DD06B4CC92B}" name="fn in Hz" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1DC18D2B-10DD-984F-B961-03184B763CD8}" name="n" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{BA959F47-D3A0-AC46-BB54-364453A84FA2}" name="L in m" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{6E8C8822-E539-8F41-A48F-F06B5F45AD30}" name="M in kg" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{EDBD39CE-68F2-4747-A67A-03E7CE008D80}" name="F0 in N" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="N4:R13" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}" name="Table16" displayName="Table16" ref="N4:R13" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="N4:R13" xr:uid="{28BFDA7B-DE79-CD46-80BD-B13681D24FB7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -647,18 +654,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{21ABC2FB-7D06-074E-B917-F7A131D058F4}" name="F0 in N" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{3B183D1C-C7B6-E242-B3D2-D8DAD6342E17}" name="fn in Hz" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{2E41B9D4-B8E9-4544-A5DF-91E2D5408375}" name="n" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A82D5EEF-720C-4749-B5D8-4BE67E617275}" name="L in m" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{94347ED6-07C6-C342-8921-F2424497039E}" name="M in kg" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{21ABC2FB-7D06-074E-B917-F7A131D058F4}" name="F0 in N" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:F14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}" name="Table17" displayName="Table17" ref="B4:F14" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B4:F14" xr:uid="{A4220B27-9BE7-C348-8CFD-34363984CFF3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -667,11 +674,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="f1 in Hz" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{D64068DB-E09C-0B43-A632-78B30077CDBD}" name="F0 in N" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{883CCE7F-A5D3-F34F-BEBA-C1C1F49031CC}" name="f1 in Hz" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{93CF3EED-9FE8-054A-8B51-40D6DD880E41}" name="n" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AE73870D-16F5-4849-98D8-F59DEACCC4F5}" name="L in m" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{855713B1-F147-7F47-98BC-C4F7A9B61560}" name="M in kg" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{D64068DB-E09C-0B43-A632-78B30077CDBD}" name="F0 in N" dataDxfId="9">
       <calculatedColumnFormula>(Table17[[#This Row],[M in kg]]*9.81) + 0.52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -680,23 +687,27 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:G12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B4:G12" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}" name="Table18" displayName="Table18" ref="B4:H12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B4:H12" xr:uid="{75CF1196-BAD9-E044-9BA3-3DDF21B6BF83}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="f1 in Hz" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{CD2C33DF-04EB-AB4F-9798-180CB360BC50}" name="F0 in N" dataDxfId="0">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{0066170D-1124-304E-A978-89197B531952}" name="f1 in Hz" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C5DA23EB-EF7B-2B4C-AF0D-D6D46A50A464}" name="n" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{56E5D647-44AE-3C46-8156-771249AAB216}" name="L in m" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9348716A-C584-1847-B703-34EDE93B292E}" name="M in kg" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{15FE26B0-C0F9-794F-95BF-D74B3814F458}" name="Hebelübersetzung" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{CD2C33DF-04EB-AB4F-9798-180CB360BC50}" name="F0 in N" dataDxfId="1">
       <calculatedColumnFormula>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B2757821-1127-944D-8B19-FC3E299D58F5}" name="sqrt(F0) in sqrt(N)" dataDxfId="0">
+      <calculatedColumnFormula>SQRT(Table18[[#This Row],[F0 in N]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1356,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD34FA5D-5D56-3246-B0BE-0A30FA4FD4B9}">
   <dimension ref="A2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="113" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -2120,14 +2131,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5856E6C-5E8C-6A41-A8A7-A9E5D2BE7E03}">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2159,7 +2171,9 @@
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="32">
       <c r="B5" s="7">
@@ -2181,7 +2195,10 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>9.3490000000000002</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>3.0576134484267303</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="32">
       <c r="B6" s="7">
@@ -2203,7 +2220,10 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>12.292</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>3.5059948659403366</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="32">
       <c r="B7" s="7">
@@ -2225,7 +2245,10 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>15.234999999999999</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>3.9032038122547483</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="32">
       <c r="B8" s="7">
@@ -2247,7 +2270,10 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>18.178000000000001</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>4.2635665821000144</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="32">
       <c r="B9" s="7">
@@ -2269,7 +2295,10 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>21.121000000000002</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>4.5957589144775648</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="32">
       <c r="B10" s="7">
@@ -2291,7 +2320,10 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>24.064</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>4.9055071093618849</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="32">
       <c r="B11" s="7">
@@ -2313,7 +2345,10 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>27.007000000000001</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>5.1968259543686859</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="32">
       <c r="B12" s="7">
@@ -2335,7 +2370,10 @@
         <f>(Table18[[#This Row],[M in kg]]*9.81) + 0.52</f>
         <v>29.95</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <f>SQRT(Table18[[#This Row],[F0 in N]])</f>
+        <v>5.472659317004851</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/String_Vibration/M12_Saitenschwingung.xlsx
+++ b/String_Vibration/M12_Saitenschwingung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/String_Vibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F94F7D6-42DE-9640-AF9D-52CB2A047DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F472C9B0-B5C7-EC44-A73B-9AB34236E0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="980" windowWidth="27960" windowHeight="17440" activeTab="4" xr2:uid="{5CF1168E-F7FF-FA41-9351-CBA8D53876DF}"/>
   </bookViews>
@@ -2132,7 +2132,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
